--- a/html/resources/1condition/practiceTrials2.xlsx
+++ b/html/resources/1condition/practiceTrials2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Documents/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6072B426-6D2C-4948-9D8B-D5DDA6A00A15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B9B89F-B75A-E941-8BC3-DB5E49EBCBDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-360" yWindow="500" windowWidth="36620" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="3400" windowWidth="33080" windowHeight="18100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C17" sqref="C17:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -574,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -607,13 +607,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -637,16 +637,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -670,13 +670,13 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -703,10 +703,10 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -727,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -736,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -760,7 +760,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -880,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
